--- a/spankulator_bom.xlsx
+++ b/spankulator_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shannon\Dropbox\moog\spankulator\Spankulator-Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8D2F7EAF-A94D-4538-8E0A-CFD4594E2544}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0586655-C570-4748-B339-8516D377474C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="169">
   <si>
     <t>Reference</t>
   </si>
@@ -34,24 +34,12 @@
     <t xml:space="preserve"> Digi-Key Part</t>
   </si>
   <si>
-    <t xml:space="preserve"> URL</t>
-  </si>
-  <si>
     <t xml:space="preserve">A1 </t>
   </si>
   <si>
-    <t>Arduino_Nano_33IoT</t>
-  </si>
-  <si>
     <t>1050-ABX00032-ND</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Arduino-Nano-33-IoT/dp/B07VW9TSKD/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1 C2 </t>
-  </si>
-  <si>
     <t>10nF</t>
   </si>
   <si>
@@ -85,9 +73,6 @@
     <t>1189-3982-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">C5 C6 C7 C9 C12 C13 </t>
-  </si>
-  <si>
     <t>100nF</t>
   </si>
   <si>
@@ -103,9 +88,6 @@
     <t>445-173597-1-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">D1 D2 D8 D7 D9 D10 D12 D11 D18 D17 D16 D15 D20 D19 </t>
-  </si>
-  <si>
     <t>SB120</t>
   </si>
   <si>
@@ -160,12 +142,6 @@
     <t xml:space="preserve">J2 </t>
   </si>
   <si>
-    <t>2X8 Header</t>
-  </si>
-  <si>
-    <t>S2011EC-08-ND</t>
-  </si>
-  <si>
     <t xml:space="preserve">J3 J4 J5 J6 J1 </t>
   </si>
   <si>
@@ -190,84 +166,27 @@
     <t>FRAM Header</t>
   </si>
   <si>
-    <t>S7041-ND</t>
-  </si>
-  <si>
     <t xml:space="preserve">J9 </t>
   </si>
   <si>
     <t>Display Header</t>
   </si>
   <si>
-    <t>S7037-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1 Q6 </t>
-  </si>
-  <si>
     <t>TN2106</t>
   </si>
   <si>
     <t>TN2106N3-G-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">Q4 Q2 </t>
-  </si>
-  <si>
-    <t>2N3906</t>
-  </si>
-  <si>
-    <t>2N3906FS-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5 Q3 </t>
-  </si>
-  <si>
-    <t>2N3904</t>
-  </si>
-  <si>
-    <t>2N3904-APCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1 R15 R11 R5 R8 R21 </t>
-  </si>
-  <si>
     <t>10K</t>
   </si>
   <si>
     <t>CF14JT10K0CT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">R13 R6 R26 R27 R12 </t>
-  </si>
-  <si>
     <t>100K</t>
   </si>
   <si>
-    <t>RNF14FTD100KCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R16 R10 </t>
-  </si>
-  <si>
-    <t>47K</t>
-  </si>
-  <si>
-    <t>CF14JT47K0CT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R17 R23 R24 R28 </t>
-  </si>
-  <si>
-    <t>301K</t>
-  </si>
-  <si>
-    <t>301KXBK-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R19 R18 R7 R9 R20 R25 </t>
-  </si>
-  <si>
     <t>PPC470W-1CT-ND</t>
   </si>
   <si>
@@ -280,24 +199,6 @@
     <t>CF14JT1K00CT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">R30 </t>
-  </si>
-  <si>
-    <t>133K</t>
-  </si>
-  <si>
-    <t>133KXBK-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R31 R29 </t>
-  </si>
-  <si>
-    <t>200K</t>
-  </si>
-  <si>
-    <t>200KXBK-ND</t>
-  </si>
-  <si>
     <t xml:space="preserve">RV1 </t>
   </si>
   <si>
@@ -509,12 +410,129 @@
   </si>
   <si>
     <t>RPC3448-ND</t>
+  </si>
+  <si>
+    <t>Nano_33IoT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1 C2 C18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16 </t>
+  </si>
+  <si>
+    <t>270p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5 C6 C7 C9 C12 C13 C17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D12 D11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D20 D19 D16 D15 D1 </t>
+  </si>
+  <si>
+    <t>BAT46</t>
+  </si>
+  <si>
+    <t>BAT46CT-ND</t>
+  </si>
+  <si>
+    <t>2x5 Header</t>
+  </si>
+  <si>
+    <t>SAM1011-04-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 Q6 Q5 Q3 Q7 Q8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 Q4 </t>
+  </si>
+  <si>
+    <t>VP2106</t>
+  </si>
+  <si>
+    <t>VP2106N3-G-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1 R15 R11 R5 R8 R21 R6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10 R16 </t>
+  </si>
+  <si>
+    <t>CF14JT100KCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17 R23 R28 </t>
+  </si>
+  <si>
+    <t>300K .1%</t>
+  </si>
+  <si>
+    <t>RN55E3003BB14-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19 R18 R20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24 R26 R27 R31 R7 </t>
+  </si>
+  <si>
+    <t>100K .1%</t>
+  </si>
+  <si>
+    <t>A105968CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R29 </t>
+  </si>
+  <si>
+    <t>200K .1%</t>
+  </si>
+  <si>
+    <t>CMF200KHCCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30 R12 </t>
+  </si>
+  <si>
+    <t>95.3K 1%</t>
+  </si>
+  <si>
+    <t>CMF95.3KQFCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RV2 RV3 </t>
+  </si>
+  <si>
+    <t>490-2875-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U6 </t>
+  </si>
+  <si>
+    <t>MAX7480</t>
+  </si>
+  <si>
+    <t>MAX7480EPA+-ND</t>
+  </si>
+  <si>
+    <t>BC1018CT-ND</t>
+  </si>
+  <si>
+    <t>S2011EC-05-ND</t>
+  </si>
+  <si>
+    <t>1212-1097-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1348,20 +1366,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1374,753 +1393,789 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B8">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D16" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>470</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>94</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
         <v>95</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D46" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>97</v>
       </c>
-      <c r="B33">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50">
         <v>7</v>
       </c>
-      <c r="C33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="C50" t="s">
         <v>107</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D50" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>109</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
         <v>110</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D51" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>112</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>142</v>
-      </c>
-      <c r="B48">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>154</v>
       </c>
       <c r="B52">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56">
         <v>3</v>
       </c>
-      <c r="C53" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>160</v>
-      </c>
-      <c r="B54">
+      <c r="C56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57">
         <v>4</v>
       </c>
-      <c r="C54" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" t="s">
-        <v>162</v>
+      <c r="C57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
